--- a/lp_tenant_importer_v2/samples/tia_config.xlsx
+++ b/lp_tenant_importer_v2/samples/tia_config.xlsx
@@ -17,14 +17,16 @@
     <sheet name="Device" sheetId="8" r:id="rId8"/>
     <sheet name="DeviceFetcher" sheetId="9" r:id="rId9"/>
     <sheet name="DeviceGroups" sheetId="10" r:id="rId10"/>
-    <sheet name="Alert" sheetId="11" r:id="rId11"/>
+    <sheet name="User" sheetId="11" r:id="rId11"/>
+    <sheet name="UserGroup" sheetId="12" r:id="rId12"/>
+    <sheet name="Alert" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="583">
   <si>
     <t>repo_number</t>
   </si>
@@ -803,54 +805,192 @@
     <t>65d714a3bc253dd6610452a3 | 65d7121229b9e83bc200591c</t>
   </si>
   <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>fullname</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>usergroup_id</t>
+  </si>
+  <si>
+    <t>preferences</t>
+  </si>
+  <si>
+    <t>62dcbda0eea1924ff18d9f74</t>
+  </si>
+  <si>
+    <t>64ff36a25aaee58760df2766</t>
+  </si>
+  <si>
+    <t>650c151dfcc3084c80c082e5</t>
+  </si>
+  <si>
+    <t>65afefd2b079f715b02651c9</t>
+  </si>
+  <si>
+    <t>65bbc347d4f35cfb51a072ae</t>
+  </si>
+  <si>
+    <t>65bbc37bd4f35cfb51a072b4</t>
+  </si>
+  <si>
+    <t>Operator1</t>
+  </si>
+  <si>
+    <t>sc3</t>
+  </si>
+  <si>
+    <t>pentest</t>
+  </si>
+  <si>
+    <t>ldap_CN=SIEM-Admin-User,OU=RoleUsers,OU=Users,OU=CORE,DC=csoc,DC=esa,DC=int</t>
+  </si>
+  <si>
+    <t>ldap_CN=SIEM-Eng-User,OU=RoleUsers,OU=Users,OU=CORE,DC=csoc,DC=esa,DC=int</t>
+  </si>
+  <si>
+    <t>Admin Admin</t>
+  </si>
+  <si>
+    <t>Operator One</t>
+  </si>
+  <si>
+    <t>SC3 SC3</t>
+  </si>
+  <si>
+    <t>Tester PEN</t>
+  </si>
+  <si>
+    <t>SIEM-Admin-User</t>
+  </si>
+  <si>
+    <t>SIEM-Eng-User</t>
+  </si>
+  <si>
+    <t>op.one@logpoint.ld</t>
+  </si>
+  <si>
+    <t>sc3@logpoint.com</t>
+  </si>
+  <si>
+    <t>pentest@logpoint.local</t>
+  </si>
+  <si>
+    <t>['62dcbda0eea1924ff18d9f6f']</t>
+  </si>
+  <si>
+    <t>{"search_help_popup": false, "hour_format": "24 Hour", "date_format": "%Y/%m/%d", "ui_theme": "default", "settings_help": true, "result_limit": 25, "shouldPrecompute": true, "search_histogram_hidden": false, "interesting_fields_disabled": false, "growl_position": "br"}</t>
+  </si>
+  <si>
+    <t>{"search_help_popup": false, "hour_format": "24 Hour", "date_format": "%Y/%m/%d", "ui_theme": "default", "growl_position": "br", "shouldPrecompute": true, "result_limit": 25, "search_histogram_hidden": false, "settings_help": null}</t>
+  </si>
+  <si>
+    <t>permission_group</t>
+  </si>
+  <si>
+    <t>object_permission</t>
+  </si>
+  <si>
+    <t>62dcbda0eea1924ff18d9f6f</t>
+  </si>
+  <si>
+    <t>62dcbda0eea1924ff18d9f70</t>
+  </si>
+  <si>
+    <t>64ff364914ffe837afabc91f</t>
+  </si>
+  <si>
+    <t>LogPoint Administrator</t>
+  </si>
+  <si>
+    <t>User Account Administrator</t>
+  </si>
+  <si>
+    <t>operator_group</t>
+  </si>
+  <si>
+    <t>This user group is highly privileged user group.
+                          The users within this group has access to the
+                          most restricted system related areas-
+                          System Settings, LogPoint License, Software Updates,
+                          Security Updates, Application Installation and
+                          Backup/Restore.</t>
+  </si>
+  <si>
+    <t>The user group has all permissions except the system
+           related permissions that the LogPoint Administrators group has.</t>
+  </si>
+  <si>
+    <t>"admin"</t>
+  </si>
+  <si>
+    <t>"operator"</t>
+  </si>
+  <si>
+    <t>{"allowed_all": true, "permitted": []}</t>
+  </si>
+  <si>
+    <t>{"allowed_all": false, "permitted": [{"logpoint_name": "siem-backend", "logpoint_ip": "127.0.0.1", "device_groups": [{"all": true, "name": "windows", "devices": [{"ips": ["10.93.8.26"], "all": true, "name": "core-ojs"}, {"ips": ["10.93.8.27"], "all": true, "name": "core-tajs"}, {"ips": ["10.93.11.11"], "all": true, "name": "core-ijs"}, {"ips": ["10.93.9.31"], "all": true, "name": "sccoe-csoc-rfsa-rf-cas"}, {"ips": ["10.93.8.247"], "all": true, "name": "TEMP-QR-SCCOE-Victim"}, {"ips": ["10.44.36.9"], "all": true, "name": "TEMP-QR-MOI-Victim"}, {"ips": ["10.93.11.10"], "all": true, "name": "core-vs1-p001esadc"}, {"ips": ["10.44.35.10"], "all": true, "name": "core-vs2-p001esadc"}, {"ips": ["10.93.8.243"], "all": true, "name": "sccoe-ar-victim"}, {"ips": ["10.44.36.12"], "all": true, "name": "moi-ar-victim"}]}, {"all": true, "name": "linux", "devices": [{"ips": ["127.0.0.1", "::1"], "all": true, "name": "localhost"}, {"ips": ["10.93.8.246"], "all": true, "name": "sccoe-TenantLogGen"}, {"ips": ["10.93.9.32"], "all": true, "name": "core-tenable.sc"}, {"ips": ["10.93.9.245"], "all": true, "name": "core-edr-log"}, {"ips": ["10.44.36.5"], "all": true, "name": "moi-sanm"}, {"ips": ["10.32.3.10"], "all": true, "name": "esrin-linux01"}, {"ips": ["10.93.9.34"], "all": true, "name": "core-deception-acm"}, {"ips": ["10.44.36.11"], "all": true, "name": "moi-TenantLogGen"}, {"ips": ["10.28.9.131"], "all": true, "name": "esait-TenantLogGen"}, {"ips": ["10.48.3.10"], "all": true, "name": "esrin-dhcp01"}, {"ips": ["10.17.20.202"], "all": true, "name": "esrin-forum01"}, {"ips": ["10.182.17.56"], "all": true, "name": "esrin-linux02"}, {"ips": ["10.182.17.146"], "all": true, "name": "esrin-linux03"}, {"ips": ["10.17.8.20"], "all": true, "name": "esrin-linux04"}, {"ips": ["10.17.8.11"], "all": true, "name": "esrin-linux05"}, {"ips": ["10.32.63.49"], "all": true, "name": "esrin-linux06"}, {"ips": ["10.182.17.48"], "all": true, "name": "esrin-linux07"}, {"ips": ["10.182.17.54"], "all": true, "name": "esrin-linux08"}, {"ips": ["10.93.11.14"], "all": true, "name": "core-vs1-p001esarsam"}, {"ips": ["10.44.35.14"], "all": true, "name": "core-vs2-p001esarsam"}, {"ips": ["10.93.8.241"], "all": true, "name": "sccoe-TenantLogGen2"}, {"ips": ["10.28.9.132"], "all": true, "name": "esait-TenantLogGen2"}, {"ips": ["10.181.238.68"], "all": true, "name": "tia-TenantLogGen"}]}, {"all": true, "name": "firewall", "devices": [{"ips": ["10.93.10.254"], "all": true, "name": "core-csoc-prod-esec-pri-fw1"}, {"ips": ["172.18.11.218"], "all": true, "name": "esrin-palo-fw02"}, {"ips": ["172.18.11.216"], "all": true, "name": "esrin-palo-fw01"}, {"ips": ["10.21.95.33"], "all": true, "name": "esrin-cisco-firepower02"}, {"ips": ["10.181.95.33"], "all": true, "name": "esrin-cisco-firepower01"}, {"ips": ["172.18.11.217"], "all": true, "name": "esrin-palo-fw03"}, {"ips": ["172.18.11.219"], "all": true, "name": "esrin-palo-fw04"}, {"ips": ["10.21.67.1"], "all": true, "name": "esrin-checkpoint-fw01"}, {"ips": ["10.22.5.1"], "all": true, "name": "esrin-checkpoint-fw02"}]}, {"all": true, "name": "others", "devices": [{"ips": ["10.93.8.252"], "all": true, "name": "sccoe-sanm"}, {"ips": ["10.113.5.121"], "all": true, "name": "esrin-sharepoint"}, {"ips": ["10.32.12.29"], "all": true, "name": "esrin-cisco-asa01"}, {"ips": ["10.32.12.30"], "all": true, "name": "esrin-cisco-asa02"}, {"ips": ["10.17.12.186"], "all": true, "name": "esrin-pwexilbl01"}, {"ips": ["10.17.14.111"], "all": true, "name": "esrin-pwexilbl02"}, {"ips": ["10.17.14.163"], "all": true, "name": "esrin-pwexilbl03"}, {"ips": ["10.182.17.35"], "all": true, "name": "esrin-pdepilb01"}]}, {"all": true, "name": "wireless", "devices": [{"ips": ["10.101.9.194"], "all": true, "name": "esrin-cisco-wism03"}, {"ips": ["10.16.2.191"], "all": true, "name": "esrin-cisco-wism04"}, {"ips": ["10.16.2.194"], "all": true, "name": "esrin-cisco-wism05"}, {"ips": ["10.66.0.191"], "all": true, "name": "esrin-cisco-wism07"}, {"ips": ["10.66.0.194"], "all": true, "name": "esrin-cisco-wism08"}, {"ips": ["172.16.32.198"], "all": true, "name": "esrin-cisco-wism10"}, {"ips": ["172.16.32.199"], "all": true, "name": "esrin-cisco-wism11"}, {"ips": ["10.32.6.191"], "all": true, "name": "esrin-cisco-wism06"}, {"ips": ["10.82.7.191"], "all": true, "name": "esrin-cisco-wism09"}, {"ips": ["10.101.9.191"], "all": true, "name": "esrin-cisco-wism01"}, {"ips": ["10.101.9.192"], "all": true, "name": "esrin-cisco-wism02"}, {"ips": ["10.250.250.161"], "all": true, "name": "esrin-cisco-wism12"}, {"ips": ["10.250.250.191"], "all": true, "name": "esrin-cisco-wism13"}, {"ips": ["10.250.250.194"], "all": true, "name": "esrin-cisco-wism14"}, {"ips": ["10.32.6.194"], "all": true, "name": "esrin-cisco-wism15"}, {"ips": ["10.48.2.191"], "all": true, "name": "esrin-cisco-wism16"}, {"ips": ["10.48.2.194"], "all": true, "name": "esrin-cisco-wism17"}, {"ips": ["10.66.0.192"], "all": true, "name": "esrin-cisco-wism18"}, {"ips": ["10.82.7.192"], "all": true, "name": "esrin-cisco-wism19"}]}, {"all": true, "name": "identity", "devices": [{"ips": ["10.21.75.30"], "all": true, "name": "esrin-iam01"}, {"ips": ["10.21.75.21"], "all": true, "name": "esrin-iam02"}, {"ips": ["10.21.75.18"], "all": true, "name": "esrin-igidb01"}, {"ips": ["10.21.75.5"], "all": true, "name": "esrin-igidb-acc01"}, {"ips": ["10.21.75.17"], "all": true, "name": "esrin-igildap01"}, {"ips": ["10.21.75.6"], "all": true, "name": "esrin-igildap-acc01"}]}, {"all": true, "name": "LTM", "devices": [{"ips": ["10.113.5.60"], "all": true, "name": "esrin-f5-ltm01"}, {"ips": ["10.113.5.62"], "all": true, "name": "esrin-f5-ltm02"}]}, {"all": true, "name": "VPN", "devices": []}, {"all": true, "name": "PAM", "devices": [{"ips": ["10.28.2.10"], "all": true, "name": "esrin-beyondtrust-pam01"}, {"ips": ["10.28.2.11"], "all": true, "name": "esrin-beyondtrust-pam02"}, {"ips": ["10.28.2.12"], "all": true, "name": "esrin-beyondtrust-pam03"}, {"ips": ["10.28.2.9"], "all": true, "name": "esrin-beyondtrust-pam04"}]}, {"all": true, "name": "oracle", "devices": [{"ips": ["10.17.20.7"], "all": true, "name": "esrin-oracle-ssp01"}, {"ips": ["10.17.20.33"], "all": true, "name": "esrin-oracle-ssp02"}]}, {"all": true, "name": "log_proxy", "devices": [{"ips": ["10.21.58.7"], "all": true, "name": "esait-log-proxy1"}, {"ips": ["10.99.89.43"], "all": true, "name": "moi-log-proxy1"}, {"ips": ["10.99.40.26"], "all": true, "name": "moi-log-proxy2"}, {"ips": ["10.21.58.8"], "all": true, "name": "esait-log-proxy2"}, {"ips": ["10.21.58.11"], "all": true, "name": "esait-log-proxy3"}]}, {"all": true, "name": "RSA", "devices": [{"ips": ["10.93.11.14"], "all": true, "name": "core-vs1-p001esarsam"}, {"ips": ["10.44.35.14"], "all": true, "name": "core-vs2-p001esarsam"}]}, {"all": true, "name": "Ungrouped", "devices": []}], "repos": [{"name": "default"}, {"name": "_logpoint"}, {"name": "_LogPointAlerts"}, {"name": "Repo-core-system"}, {"name": "Repo-core-system-verbose"}, {"name": "Repo-core-secu"}, {"name": "Repo-core-secu-verbose"}, {"name": "Repo-core-system-expert"}, {"name": "Repo-core-cloud"}, {"name": "Repo-moi-system"}, {"name": "Repo-moi-system-verbose"}, {"name": "Repo-moi-secu"}, {"name": "Repo-moi-secu-verbose"}, {"name": "Repo-moi-system-expert"}, {"name": "Repo-moi-cloud"}, {"name": "Repo-esait-system"}, {"name": "Repo-esait-secu"}, {"name": "Repo-esait-secu-verbose"}, {"name": "Repo-sccoe-cloud"}, {"name": "Repo-sccoe-secu"}, {"name": "Repo-sccoe-secu-verbose"}, {"name": "Repo-sccoe-system"}, {"name": "Repo-sccoe-system-expert"}, {"name": "Repo-sccoe-system-verbose"}, {"name": "Repo-esait-system-verbose"}, {"name": "Repo-tia-system"}, {"name": "Repo-tia-system-verbose"}, {"name": "Repo-tia-secu"}, {"name": "Repo-tia-secu-verbose"}], "allDeviceGroups": true, "allRepos": true}]}</t>
+  </si>
+  <si>
+    <t>settings.repos</t>
+  </si>
+  <si>
+    <t>settings.user</t>
+  </si>
+  <si>
+    <t>settings.assigned_to</t>
+  </si>
+  <si>
+    <t>settings.visible_to_users</t>
+  </si>
+  <si>
+    <t>settings.visible_to</t>
+  </si>
+  <si>
     <t>alert_index</t>
   </si>
   <si>
+    <t>settings.vid</t>
+  </si>
+  <si>
+    <t>settings.used_from</t>
+  </si>
+  <si>
     <t>settings.active</t>
   </si>
   <si>
+    <t>settings.flush_on_trigger</t>
+  </si>
+  <si>
     <t>settings.description</t>
   </si>
   <si>
+    <t>settings.data_privacy_request</t>
+  </si>
+  <si>
     <t>settings.time_range_seconds</t>
   </si>
   <si>
+    <t>settings.version</t>
+  </si>
+  <si>
+    <t>settings.tid</t>
+  </si>
+  <si>
     <t>settings.extra_config.query</t>
   </si>
   <si>
-    <t>settings.repos</t>
-  </si>
-  <si>
-    <t>settings.vid</t>
-  </si>
-  <si>
-    <t>settings.used_from</t>
-  </si>
-  <si>
-    <t>settings.visible_to</t>
-  </si>
-  <si>
-    <t>settings.flush_on_trigger</t>
-  </si>
-  <si>
-    <t>settings.data_privacy_request</t>
-  </si>
-  <si>
-    <t>settings.version</t>
-  </si>
-  <si>
-    <t>settings.tid</t>
-  </si>
-  <si>
     <t>settings.risk</t>
   </si>
   <si>
-    <t>settings.visible_to_users</t>
-  </si>
-  <si>
-    <t>settings.user</t>
-  </si>
-  <si>
     <t>settings.aggregate</t>
   </si>
   <si>
@@ -863,9 +1003,6 @@
     <t>settings.name</t>
   </si>
   <si>
-    <t>settings.assigned_to</t>
-  </si>
-  <si>
     <t>settings.notifications</t>
   </si>
   <si>
@@ -1041,6 +1178,87 @@
   </si>
   <si>
     <t>CARDIF - ACTIVE DIRECTORY - UTILISATION DU COMPTE ADMINISTRATEUR</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-tia-secu"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-tia-secu-verbose"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-sccoe-system-verbose", "10.109.234.1:5504/Repo-tia-secu", "10.109.234.1:5504/Repo-tia-secu-verbose", "10.109.234.1:5504/Repo-tia-system", "10.109.234.1:5504/Repo-tia-system-verbose", "10.109.234.1:5504/Repo-core-cloud", "10.109.234.1:5504/Repo-core-secu", "10.109.234.1:5504/Repo-core-secu-verbose", "10.109.234.1:5504/Repo-core-system"]</t>
+  </si>
+  <si>
+    <t>["127.0.0.1:5504", "10.109.234.1:5504"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-tia-system", "10.109.234.1:5504/Repo-tia-system-verbose"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-tia-secu", "10.109.234.1:5504/Repo-tia-secu-verbose", "10.109.234.1:5504/Repo-tia-system", "10.109.234.1:5504/Repo-tia-system-verbose", "10.109.234.1:5504/Repo-core-cloud", "10.109.234.1:5504/Repo-core-secu", "10.109.234.1:5504/Repo-core-secu-verbose", "10.109.234.1:5504/Repo-core-system", "10.109.234.1:5504/Repo-core-system-expert", "10.109.234.1:5504/Repo-core-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "127.0.0.1:5504/Repo-esait-secu-verbose"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-sccoe-system-expert", "10.109.234.1:5504/Repo-sccoe-system-verbose", "10.109.234.1:5504/Repo-tia-secu", "10.109.234.1:5504/Repo-tia-secu-verbose", "10.109.234.1:5504/Repo-tia-system", "10.109.234.1:5504/Repo-tia-system-verbose", "10.109.234.1:5504/Repo-core-cloud", "10.109.234.1:5504/Repo-core-secu", "10.109.234.1:5504/Repo-core-secu-verbose", "10.109.234.1:5504/Repo-core-system", "10.109.234.1:5504/Repo-core-system-expert", "127.0.0.1:5504/Repo-core-system-verbose"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-tia-secu", "10.109.234.1:5504/Repo-tia-secu-verbose", "10.109.234.1:5504/Repo-tia-system", "10.109.234.1:5504/Repo-tia-system-verbose", "10.109.234.1:5504/Repo-tia-secu", "10.109.234.1:5504/Repo-tia-secu-verbose", "10.109.234.1:5504/Repo-tia-system", "10.109.234.1:5504/Repo-tia-system-verbose", "10.109.234.1:5504/Repo-tia-secu", "10.109.234.1:5504/Repo-tia-secu-verbose", "10.109.234.1:5504/Repo-tia-system", "127.0.0.1:5504/Repo-tia-system-verbose"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-sccoe-secu-verbose", "10.109.234.1:5504/Repo-sccoe-system", "10.109.234.1:5504/Repo-sccoe-system-expert", "10.109.234.1:5504/Repo-sccoe-system-verbose", "10.109.234.1:5504/Repo-tia-secu", "10.109.234.1:5504/Repo-tia-secu-verbose", "10.109.234.1:5504/Repo-tia-system", "10.109.234.1:5504/Repo-tia-system-verbose", "10.109.234.1:5504/Repo-core-cloud", "10.109.234.1:5504/Repo-core-secu", "10.109.234.1:5504/Repo-core-secu-verbose", "127.0.0.1:5504/Repo-core-system"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-sccoe-cloud", "10.109.234.1:5504/Repo-sccoe-secu", "10.109.234.1:5504/Repo-sccoe-secu-verbose", "10.109.234.1:5504/Repo-sccoe-system", "10.109.234.1:5504/Repo-sccoe-system-expert", "10.109.234.1:5504/Repo-sccoe-system-verbose", "10.109.234.1:5504/Repo-tia-secu", "10.109.234.1:5504/Repo-tia-secu-verbose", "10.109.234.1:5504/Repo-tia-system", "10.109.234.1:5504/Repo-tia-system-verbose", "10.109.234.1:5504/Repo-core-cloud", "127.0.0.1:5504/Repo-core-secu"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-moi-system-expert", "10.109.234.1:5504/Repo-moi-system-verbose", "10.109.234.1:5504/Repo-sccoe-cloud", "10.109.234.1:5504/Repo-sccoe-secu", "10.109.234.1:5504/Repo-sccoe-secu-verbose", "10.109.234.1:5504/Repo-sccoe-system", "10.109.234.1:5504/Repo-sccoe-system-expert", "10.109.234.1:5504/Repo-sccoe-system-verbose", "10.109.234.1:5504/Repo-tia-secu", "10.109.234.1:5504/Repo-tia-secu-verbose", "10.109.234.1:5504/Repo-tia-system", "127.0.0.1:5504/Repo-tia-system-verbose"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-moi-secu", "10.109.234.1:5504/Repo-moi-secu-verbose", "10.109.234.1:5504/Repo-moi-system", "10.109.234.1:5504/Repo-moi-system-expert", "10.109.234.1:5504/Repo-moi-system-verbose", "10.109.234.1:5504/Repo-sccoe-cloud", "10.109.234.1:5504/Repo-sccoe-secu", "10.109.234.1:5504/Repo-sccoe-secu-verbose", "10.109.234.1:5504/Repo-sccoe-system", "10.109.234.1:5504/Repo-sccoe-system-expert", "10.109.234.1:5504/Repo-sccoe-system-verbose", "127.0.0.1:5504/Repo-tia-secu"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-tia-system"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-tia-system-verbose"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-tia-secu", "10.109.234.1:5504/Repo-tia-secu-verbose", "10.109.234.1:5504/Repo-tia-system"]</t>
+  </si>
+  <si>
+    <t>ldap_CN=BATY Nicolas,OU=Internes,OU=PRD,OU=Users,OU=T2,DC=matmut,DC=fr</t>
+  </si>
+  <si>
+    <t>securite</t>
+  </si>
+  <si>
+    <t>ldap_CN=PFOH Stéphan,OU=Internes,OU=PRD,OU=Users,OU=T2,DC=matmut,DC=fr</t>
+  </si>
+  <si>
+    <t>adfs_lelevier.aurelien</t>
+  </si>
+  <si>
+    <t>5a71d86903a0f36ef36a7293</t>
+  </si>
+  <si>
+    <t>5df8af7f03a0f351b1487c93</t>
+  </si>
+  <si>
+    <t>5a61fb4103a0f34af015fad6</t>
+  </si>
+  <si>
+    <t>637395a3def0bfd60151d472</t>
+  </si>
+  <si>
+    <t>645276595ee2cee2f3439998</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>["ldap_CN=LE LEVIER Aurélien,OU=Siege,OU=Utilisateur,DC=matmut,DC=fr"]</t>
+  </si>
+  <si>
+    <t>ALERT_735</t>
   </si>
   <si>
     <t>Valeur limite : 500 000 Calculée par rapport aux valeurs moyennes constatées sur ces comptes Ne cible que les comptes de la liste MATMUT_LST_CPT_SEUIL_KERBEROS_ELEVE</t>
@@ -1137,57 +1355,6 @@
     <t xml:space="preserve">"domain" = "CARDIFIARD*"user="administrateur"  source_address=* -source_address="::1" | chart count() as event_count by source_address,event_id,event_type order by count() desc  </t>
   </si>
   <si>
-    <t>["10.109.234.1:5504/Repo-tia-secu"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-tia-secu-verbose"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-sccoe-system-verbose", "10.109.234.1:5504/Repo-tia-secu", "10.109.234.1:5504/Repo-tia-secu-verbose", "10.109.234.1:5504/Repo-tia-system", "10.109.234.1:5504/Repo-tia-system-verbose", "10.109.234.1:5504/Repo-core-cloud", "10.109.234.1:5504/Repo-core-secu", "10.109.234.1:5504/Repo-core-secu-verbose", "10.109.234.1:5504/Repo-core-system"]</t>
-  </si>
-  <si>
-    <t>["127.0.0.1:5504", "10.109.234.1:5504"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-tia-system", "10.109.234.1:5504/Repo-tia-system-verbose"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-tia-secu", "10.109.234.1:5504/Repo-tia-secu-verbose", "10.109.234.1:5504/Repo-tia-system", "10.109.234.1:5504/Repo-tia-system-verbose", "10.109.234.1:5504/Repo-core-cloud", "10.109.234.1:5504/Repo-core-secu", "10.109.234.1:5504/Repo-core-secu-verbose", "10.109.234.1:5504/Repo-core-system", "10.109.234.1:5504/Repo-core-system-expert", "10.109.234.1:5504/Repo-core-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "127.0.0.1:5504/Repo-esait-secu-verbose"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-sccoe-system-expert", "10.109.234.1:5504/Repo-sccoe-system-verbose", "10.109.234.1:5504/Repo-tia-secu", "10.109.234.1:5504/Repo-tia-secu-verbose", "10.109.234.1:5504/Repo-tia-system", "10.109.234.1:5504/Repo-tia-system-verbose", "10.109.234.1:5504/Repo-core-cloud", "10.109.234.1:5504/Repo-core-secu", "10.109.234.1:5504/Repo-core-secu-verbose", "10.109.234.1:5504/Repo-core-system", "10.109.234.1:5504/Repo-core-system-expert", "127.0.0.1:5504/Repo-core-system-verbose"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-tia-secu", "10.109.234.1:5504/Repo-tia-secu-verbose", "10.109.234.1:5504/Repo-tia-system", "10.109.234.1:5504/Repo-tia-system-verbose", "10.109.234.1:5504/Repo-tia-secu", "10.109.234.1:5504/Repo-tia-secu-verbose", "10.109.234.1:5504/Repo-tia-system", "10.109.234.1:5504/Repo-tia-system-verbose", "10.109.234.1:5504/Repo-tia-secu", "10.109.234.1:5504/Repo-tia-secu-verbose", "10.109.234.1:5504/Repo-tia-system", "127.0.0.1:5504/Repo-tia-system-verbose"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-sccoe-secu-verbose", "10.109.234.1:5504/Repo-sccoe-system", "10.109.234.1:5504/Repo-sccoe-system-expert", "10.109.234.1:5504/Repo-sccoe-system-verbose", "10.109.234.1:5504/Repo-tia-secu", "10.109.234.1:5504/Repo-tia-secu-verbose", "10.109.234.1:5504/Repo-tia-system", "10.109.234.1:5504/Repo-tia-system-verbose", "10.109.234.1:5504/Repo-core-cloud", "10.109.234.1:5504/Repo-core-secu", "10.109.234.1:5504/Repo-core-secu-verbose", "127.0.0.1:5504/Repo-core-system"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-sccoe-cloud", "10.109.234.1:5504/Repo-sccoe-secu", "10.109.234.1:5504/Repo-sccoe-secu-verbose", "10.109.234.1:5504/Repo-sccoe-system", "10.109.234.1:5504/Repo-sccoe-system-expert", "10.109.234.1:5504/Repo-sccoe-system-verbose", "10.109.234.1:5504/Repo-tia-secu", "10.109.234.1:5504/Repo-tia-secu-verbose", "10.109.234.1:5504/Repo-tia-system", "10.109.234.1:5504/Repo-tia-system-verbose", "10.109.234.1:5504/Repo-core-cloud", "127.0.0.1:5504/Repo-core-secu"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-moi-system-expert", "10.109.234.1:5504/Repo-moi-system-verbose", "10.109.234.1:5504/Repo-sccoe-cloud", "10.109.234.1:5504/Repo-sccoe-secu", "10.109.234.1:5504/Repo-sccoe-secu-verbose", "10.109.234.1:5504/Repo-sccoe-system", "10.109.234.1:5504/Repo-sccoe-system-expert", "10.109.234.1:5504/Repo-sccoe-system-verbose", "10.109.234.1:5504/Repo-tia-secu", "10.109.234.1:5504/Repo-tia-secu-verbose", "10.109.234.1:5504/Repo-tia-system", "127.0.0.1:5504/Repo-tia-system-verbose"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-moi-secu", "10.109.234.1:5504/Repo-moi-secu-verbose", "10.109.234.1:5504/Repo-moi-system", "10.109.234.1:5504/Repo-moi-system-expert", "10.109.234.1:5504/Repo-moi-system-verbose", "10.109.234.1:5504/Repo-sccoe-cloud", "10.109.234.1:5504/Repo-sccoe-secu", "10.109.234.1:5504/Repo-sccoe-secu-verbose", "10.109.234.1:5504/Repo-sccoe-system", "10.109.234.1:5504/Repo-sccoe-system-expert", "10.109.234.1:5504/Repo-sccoe-system-verbose", "127.0.0.1:5504/Repo-tia-secu"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-tia-system"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-tia-system-verbose"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-tia-secu", "10.109.234.1:5504/Repo-tia-secu-verbose", "10.109.234.1:5504/Repo-tia-system"]</t>
-  </si>
-  <si>
-    <t>ALERT_735</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>medium</t>
   </si>
   <si>
@@ -1197,21 +1364,6 @@
     <t>critical</t>
   </si>
   <si>
-    <t>["ldap_CN=LE LEVIER Aurélien,OU=Siege,OU=Utilisateur,DC=matmut,DC=fr"]</t>
-  </si>
-  <si>
-    <t>ldap_CN=BATY Nicolas,OU=Internes,OU=PRD,OU=Users,OU=T2,DC=matmut,DC=fr</t>
-  </si>
-  <si>
-    <t>securite</t>
-  </si>
-  <si>
-    <t>ldap_CN=PFOH Stéphan,OU=Internes,OU=PRD,OU=Users,OU=T2,DC=matmut,DC=fr</t>
-  </si>
-  <si>
-    <t>adfs_lelevier.aurelien</t>
-  </si>
-  <si>
     <t>min</t>
   </si>
   <si>
@@ -1234,21 +1386,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>5a71d86903a0f36ef36a7293</t>
-  </si>
-  <si>
-    <t>5df8af7f03a0f351b1487c93</t>
-  </si>
-  <si>
-    <t>5a61fb4103a0f34af015fad6</t>
-  </si>
-  <si>
-    <t>637395a3def0bfd60151d472</t>
-  </si>
-  <si>
-    <t>645276595ee2cee2f3439998</t>
   </si>
   <si>
     <t>[{"threshold_value": null, "notify_email": true, "template_file": "alert_5a71d86903a0f36ef36a7293_KRSXG5BAMNSXE5DJMZUWGYLUMUQGK6DQNFZGKZA=.tmp", "email_template": "Un certificat F5 expire.", "email_emails": ["baty.nicolas@matmut.fr"], "threshold_option": null, "raw_emails": ["baty.nicolas@matmut.fr"], "type": "email", "subject": "Test certificate expired"}]</t>
@@ -2474,6 +2611,252 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BG23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2482,246 +2865,246 @@
   <sheetData>
     <row r="1" spans="1:59">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>158</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>302</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>260</v>
+        <v>303</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>271</v>
+        <v>314</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>273</v>
+        <v>316</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>280</v>
+        <v>323</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>283</v>
+        <v>326</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>286</v>
+        <v>329</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>288</v>
+        <v>331</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:59">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G2">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2">
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2">
         <v>600</v>
       </c>
-      <c r="F2" t="s">
-        <v>348</v>
-      </c>
-      <c r="G2" t="s">
-        <v>369</v>
-      </c>
-      <c r="J2" t="s">
-        <v>385</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>386</v>
-      </c>
-      <c r="P2" t="s">
-        <v>385</v>
-      </c>
       <c r="Q2" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="R2" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="S2" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="T2" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="U2" t="s">
-        <v>317</v>
+        <v>448</v>
       </c>
       <c r="V2" t="s">
-        <v>402</v>
+        <v>360</v>
       </c>
       <c r="W2" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="X2" t="s">
-        <v>428</v>
+        <v>471</v>
       </c>
       <c r="Y2" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="Z2" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AA2" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AB2" t="b">
         <v>0</v>
@@ -2730,13 +3113,13 @@
         <v>0</v>
       </c>
       <c r="AE2" t="s">
-        <v>348</v>
+        <v>418</v>
       </c>
       <c r="AF2" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="AG2" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -2745,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="AM2" t="s">
-        <v>458</v>
+        <v>501</v>
       </c>
       <c r="AN2" t="b">
         <v>1</v>
@@ -2757,19 +3140,19 @@
         <v>120</v>
       </c>
       <c r="AP2" t="s">
-        <v>348</v>
+        <v>418</v>
       </c>
       <c r="AQ2" t="s">
-        <v>348</v>
+        <v>418</v>
       </c>
       <c r="AR2" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AS2" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AT2" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2784,78 +3167,78 @@
         <v>0</v>
       </c>
       <c r="BG2" t="s">
-        <v>538</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3" spans="1:59">
-      <c r="A3">
+      <c r="A3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F3" t="s">
+        <v>406</v>
+      </c>
+      <c r="G3">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>339</v>
-      </c>
-      <c r="E3">
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>409</v>
+      </c>
+      <c r="N3">
         <v>86400</v>
       </c>
-      <c r="F3" t="s">
-        <v>349</v>
-      </c>
-      <c r="G3" t="s">
-        <v>370</v>
-      </c>
-      <c r="J3" t="s">
-        <v>385</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>386</v>
-      </c>
-      <c r="P3" t="s">
-        <v>385</v>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="R3" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="S3" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="T3" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="U3" t="s">
-        <v>318</v>
+        <v>448</v>
       </c>
       <c r="V3" t="s">
-        <v>403</v>
+        <v>361</v>
       </c>
       <c r="W3" t="s">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="X3" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="Y3" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="Z3" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AA3" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AB3" t="b">
         <v>0</v>
@@ -2864,16 +3247,16 @@
         <v>1</v>
       </c>
       <c r="AE3" t="s">
-        <v>349</v>
+        <v>419</v>
       </c>
       <c r="AF3" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="AG3" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="AI3" t="s">
-        <v>339</v>
+        <v>409</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -2882,31 +3265,31 @@
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="AM3" t="s">
-        <v>459</v>
+        <v>502</v>
       </c>
       <c r="AN3" t="b">
         <v>1</v>
       </c>
       <c r="AO3" t="s">
-        <v>473</v>
+        <v>516</v>
       </c>
       <c r="AP3" t="s">
-        <v>474</v>
+        <v>517</v>
       </c>
       <c r="AQ3" t="s">
-        <v>492</v>
+        <v>535</v>
       </c>
       <c r="AR3" t="s">
-        <v>511</v>
+        <v>554</v>
       </c>
       <c r="AS3" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="AT3" t="s">
-        <v>514</v>
+        <v>557</v>
       </c>
       <c r="AU3">
         <v>1</v>
@@ -2921,84 +3304,84 @@
         <v>0</v>
       </c>
       <c r="BB3" t="s">
-        <v>529</v>
+        <v>572</v>
       </c>
       <c r="BC3" t="s">
-        <v>531</v>
+        <v>574</v>
       </c>
       <c r="BG3" t="s">
-        <v>538</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4" spans="1:59">
-      <c r="A4">
+      <c r="A4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D4" t="s">
+        <v>402</v>
+      </c>
+      <c r="E4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F4" t="s">
+        <v>406</v>
+      </c>
+      <c r="G4">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>340</v>
-      </c>
-      <c r="E4">
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>410</v>
+      </c>
+      <c r="N4">
         <v>3600</v>
       </c>
-      <c r="F4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G4" t="s">
-        <v>371</v>
-      </c>
-      <c r="J4" t="s">
-        <v>385</v>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
-        <v>387</v>
-      </c>
-      <c r="P4" t="s">
-        <v>385</v>
+      <c r="O4">
+        <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="R4" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="S4" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="T4" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="U4" t="s">
-        <v>319</v>
+        <v>448</v>
       </c>
       <c r="V4" t="s">
-        <v>403</v>
+        <v>362</v>
       </c>
       <c r="W4" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="X4" t="s">
-        <v>430</v>
+        <v>473</v>
       </c>
       <c r="Y4" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="Z4" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AA4" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AB4" t="b">
         <v>0</v>
@@ -3007,16 +3390,16 @@
         <v>1</v>
       </c>
       <c r="AE4" t="s">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="AF4" t="s">
-        <v>453</v>
+        <v>496</v>
       </c>
       <c r="AG4" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="AI4" t="s">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="AJ4">
         <v>1</v>
@@ -3025,31 +3408,31 @@
         <v>0</v>
       </c>
       <c r="AL4" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="AM4" t="s">
-        <v>460</v>
+        <v>503</v>
       </c>
       <c r="AN4" t="b">
         <v>1</v>
       </c>
       <c r="AO4" t="s">
-        <v>473</v>
+        <v>516</v>
       </c>
       <c r="AP4" t="s">
-        <v>475</v>
+        <v>518</v>
       </c>
       <c r="AQ4" t="s">
-        <v>493</v>
+        <v>536</v>
       </c>
       <c r="AR4" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="AS4" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="AT4" t="s">
-        <v>460</v>
+        <v>503</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -3064,72 +3447,72 @@
         <v>0</v>
       </c>
       <c r="BB4" t="s">
-        <v>529</v>
+        <v>572</v>
       </c>
       <c r="BG4" t="s">
-        <v>538</v>
+        <v>581</v>
       </c>
     </row>
     <row r="5" spans="1:59">
-      <c r="A5">
+      <c r="A5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" t="s">
+        <v>399</v>
+      </c>
+      <c r="D5" t="s">
+        <v>403</v>
+      </c>
+      <c r="E5" t="s">
+        <v>406</v>
+      </c>
+      <c r="F5" t="s">
+        <v>406</v>
+      </c>
+      <c r="G5">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
-        <v>320</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>341</v>
-      </c>
-      <c r="E5">
+      <c r="I5" t="s">
+        <v>408</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>411</v>
+      </c>
+      <c r="N5">
         <v>300</v>
       </c>
-      <c r="F5" t="s">
-        <v>351</v>
-      </c>
-      <c r="G5" t="s">
-        <v>372</v>
-      </c>
-      <c r="I5" t="s">
-        <v>384</v>
-      </c>
-      <c r="J5" t="s">
-        <v>385</v>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O5" t="s">
-        <v>386</v>
-      </c>
-      <c r="P5" t="s">
-        <v>385</v>
-      </c>
       <c r="Q5" t="s">
-        <v>392</v>
+        <v>421</v>
       </c>
       <c r="R5" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="S5" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="T5" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="U5" t="s">
-        <v>320</v>
+        <v>449</v>
       </c>
       <c r="V5" t="s">
-        <v>404</v>
+        <v>363</v>
       </c>
       <c r="W5" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
       <c r="X5" t="s">
-        <v>431</v>
+        <v>474</v>
       </c>
       <c r="AB5" t="b">
         <v>1</v>
@@ -3138,13 +3521,13 @@
         <v>1</v>
       </c>
       <c r="AE5" t="s">
-        <v>351</v>
+        <v>421</v>
       </c>
       <c r="AG5" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="AI5" t="s">
-        <v>341</v>
+        <v>411</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -3153,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="AL5" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="AM5" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="AN5" t="b">
         <v>1</v>
@@ -3165,19 +3548,19 @@
         <v>120</v>
       </c>
       <c r="AP5" t="s">
-        <v>351</v>
+        <v>421</v>
       </c>
       <c r="AQ5" t="s">
-        <v>494</v>
+        <v>537</v>
       </c>
       <c r="AR5" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AS5" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AT5" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -3192,78 +3575,78 @@
         <v>0</v>
       </c>
       <c r="AY5" t="s">
-        <v>524</v>
+        <v>567</v>
       </c>
       <c r="BG5" t="s">
-        <v>539</v>
+        <v>582</v>
       </c>
     </row>
     <row r="6" spans="1:59">
-      <c r="A6">
+      <c r="A6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C6" t="s">
+        <v>399</v>
+      </c>
+      <c r="D6" t="s">
+        <v>403</v>
+      </c>
+      <c r="E6" t="s">
+        <v>406</v>
+      </c>
+      <c r="F6" t="s">
+        <v>406</v>
+      </c>
+      <c r="G6">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>321</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>342</v>
-      </c>
-      <c r="E6">
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>412</v>
+      </c>
+      <c r="N6">
         <v>900</v>
       </c>
-      <c r="F6" t="s">
-        <v>352</v>
-      </c>
-      <c r="G6" t="s">
-        <v>373</v>
-      </c>
-      <c r="J6" t="s">
-        <v>385</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O6" t="s">
-        <v>386</v>
-      </c>
-      <c r="P6" t="s">
-        <v>385</v>
-      </c>
       <c r="Q6" t="s">
-        <v>392</v>
+        <v>422</v>
       </c>
       <c r="R6" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="S6" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="T6" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="U6" t="s">
-        <v>321</v>
+        <v>448</v>
       </c>
       <c r="V6" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="W6" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="X6" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="Y6" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="Z6" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AA6" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AB6" t="b">
         <v>0</v>
@@ -3272,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="AE6" t="s">
-        <v>352</v>
+        <v>422</v>
       </c>
       <c r="AG6" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="AI6" t="s">
-        <v>342</v>
+        <v>412</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -3287,10 +3670,10 @@
         <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="AM6" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
       <c r="AN6" t="b">
         <v>1</v>
@@ -3299,19 +3682,19 @@
         <v>120</v>
       </c>
       <c r="AP6" t="s">
-        <v>476</v>
+        <v>519</v>
       </c>
       <c r="AQ6" t="s">
-        <v>495</v>
+        <v>538</v>
       </c>
       <c r="AR6" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AS6" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AT6" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -3326,81 +3709,81 @@
         <v>0</v>
       </c>
       <c r="BB6" t="s">
-        <v>529</v>
+        <v>572</v>
       </c>
       <c r="BD6">
         <v>15</v>
       </c>
       <c r="BG6" t="s">
-        <v>538</v>
+        <v>581</v>
       </c>
     </row>
     <row r="7" spans="1:59">
-      <c r="A7">
+      <c r="A7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C7" t="s">
+        <v>400</v>
+      </c>
+      <c r="D7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G7">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
-        <v>322</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>7200</v>
       </c>
-      <c r="F7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G7" t="s">
-        <v>374</v>
-      </c>
-      <c r="J7" t="s">
-        <v>385</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="O7" t="s">
-        <v>388</v>
-      </c>
-      <c r="P7" t="s">
-        <v>389</v>
+      <c r="O7">
+        <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="R7" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="S7" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="T7" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="U7" t="s">
-        <v>322</v>
+        <v>448</v>
       </c>
       <c r="V7" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="W7" t="s">
-        <v>411</v>
+        <v>454</v>
       </c>
       <c r="X7" t="s">
-        <v>433</v>
+        <v>476</v>
       </c>
       <c r="Y7" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="Z7" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AA7" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AB7" t="b">
         <v>0</v>
@@ -3409,13 +3792,13 @@
         <v>0</v>
       </c>
       <c r="AE7" t="s">
-        <v>353</v>
+        <v>423</v>
       </c>
       <c r="AF7" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="AG7" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="AJ7">
         <v>2</v>
@@ -3424,31 +3807,31 @@
         <v>0</v>
       </c>
       <c r="AL7" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="AM7" t="s">
-        <v>463</v>
+        <v>506</v>
       </c>
       <c r="AN7" t="b">
         <v>1</v>
       </c>
       <c r="AO7" t="s">
-        <v>473</v>
+        <v>516</v>
       </c>
       <c r="AP7" t="s">
-        <v>477</v>
+        <v>520</v>
       </c>
       <c r="AQ7" t="s">
-        <v>496</v>
+        <v>539</v>
       </c>
       <c r="AR7" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="AS7" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="AT7" t="s">
-        <v>515</v>
+        <v>558</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3463,81 +3846,81 @@
         <v>0</v>
       </c>
       <c r="BB7" t="s">
-        <v>529</v>
+        <v>572</v>
       </c>
       <c r="BC7" t="s">
-        <v>532</v>
+        <v>575</v>
       </c>
       <c r="BG7" t="s">
-        <v>538</v>
+        <v>581</v>
       </c>
     </row>
     <row r="8" spans="1:59">
-      <c r="A8">
+      <c r="A8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C8" t="s">
+        <v>400</v>
+      </c>
+      <c r="D8" t="s">
+        <v>404</v>
+      </c>
+      <c r="E8" t="s">
+        <v>407</v>
+      </c>
+      <c r="F8" t="s">
+        <v>406</v>
+      </c>
+      <c r="G8">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
-        <v>323</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8">
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8">
         <v>7200</v>
       </c>
-      <c r="F8" t="s">
-        <v>353</v>
-      </c>
-      <c r="G8" t="s">
-        <v>375</v>
-      </c>
-      <c r="J8" t="s">
-        <v>385</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="O8" t="s">
-        <v>388</v>
-      </c>
-      <c r="P8" t="s">
-        <v>389</v>
+      <c r="O8">
+        <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="R8" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="S8" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="T8" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="U8" t="s">
-        <v>323</v>
+        <v>448</v>
       </c>
       <c r="V8" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="W8" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="X8" t="s">
-        <v>434</v>
+        <v>477</v>
       </c>
       <c r="Y8" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="Z8" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AA8" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AB8" t="b">
         <v>0</v>
@@ -3546,13 +3929,13 @@
         <v>0</v>
       </c>
       <c r="AE8" t="s">
-        <v>353</v>
+        <v>423</v>
       </c>
       <c r="AF8" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="AG8" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="AJ8">
         <v>2</v>
@@ -3561,31 +3944,31 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="AM8" t="s">
-        <v>463</v>
+        <v>506</v>
       </c>
       <c r="AN8" t="b">
         <v>1</v>
       </c>
       <c r="AO8" t="s">
-        <v>473</v>
+        <v>516</v>
       </c>
       <c r="AP8" t="s">
-        <v>477</v>
+        <v>520</v>
       </c>
       <c r="AQ8" t="s">
-        <v>496</v>
+        <v>539</v>
       </c>
       <c r="AR8" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="AS8" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="AT8" t="s">
-        <v>515</v>
+        <v>558</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3600,81 +3983,81 @@
         <v>0</v>
       </c>
       <c r="BB8" t="s">
-        <v>529</v>
+        <v>572</v>
       </c>
       <c r="BC8" t="s">
-        <v>532</v>
+        <v>575</v>
       </c>
       <c r="BG8" t="s">
-        <v>538</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9" spans="1:59">
-      <c r="A9">
+      <c r="A9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C9" t="s">
+        <v>400</v>
+      </c>
+      <c r="D9" t="s">
+        <v>404</v>
+      </c>
+      <c r="E9" t="s">
+        <v>407</v>
+      </c>
+      <c r="F9" t="s">
+        <v>406</v>
+      </c>
+      <c r="G9">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9">
         <v>7200</v>
       </c>
-      <c r="F9" t="s">
-        <v>354</v>
-      </c>
-      <c r="G9" t="s">
-        <v>376</v>
-      </c>
-      <c r="J9" t="s">
-        <v>385</v>
-      </c>
-      <c r="K9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="O9" t="s">
-        <v>387</v>
-      </c>
-      <c r="P9" t="s">
-        <v>389</v>
+      <c r="O9">
+        <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="R9" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="S9" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="T9" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="U9" t="s">
-        <v>324</v>
+        <v>448</v>
       </c>
       <c r="V9" t="s">
-        <v>405</v>
+        <v>367</v>
       </c>
       <c r="W9" t="s">
-        <v>413</v>
+        <v>456</v>
       </c>
       <c r="X9" t="s">
-        <v>435</v>
+        <v>478</v>
       </c>
       <c r="Y9" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="Z9" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AA9" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AB9" t="b">
         <v>0</v>
@@ -3683,13 +4066,13 @@
         <v>0</v>
       </c>
       <c r="AE9" t="s">
-        <v>354</v>
+        <v>424</v>
       </c>
       <c r="AF9" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="AG9" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="AJ9">
         <v>2</v>
@@ -3698,31 +4081,31 @@
         <v>0</v>
       </c>
       <c r="AL9" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="AM9" t="s">
-        <v>463</v>
+        <v>506</v>
       </c>
       <c r="AN9" t="b">
         <v>1</v>
       </c>
       <c r="AO9" t="s">
-        <v>473</v>
+        <v>516</v>
       </c>
       <c r="AP9" t="s">
-        <v>478</v>
+        <v>521</v>
       </c>
       <c r="AQ9" t="s">
-        <v>497</v>
+        <v>540</v>
       </c>
       <c r="AR9" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="AS9" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="AT9" t="s">
-        <v>515</v>
+        <v>558</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3737,84 +4120,84 @@
         <v>0</v>
       </c>
       <c r="BB9" t="s">
-        <v>529</v>
+        <v>572</v>
       </c>
       <c r="BC9" t="s">
-        <v>533</v>
+        <v>576</v>
       </c>
       <c r="BG9" t="s">
-        <v>538</v>
+        <v>581</v>
       </c>
     </row>
     <row r="10" spans="1:59">
-      <c r="A10">
+      <c r="A10" t="s">
+        <v>368</v>
+      </c>
+      <c r="B10" t="s">
+        <v>390</v>
+      </c>
+      <c r="C10" t="s">
+        <v>400</v>
+      </c>
+      <c r="D10" t="s">
+        <v>404</v>
+      </c>
+      <c r="E10" t="s">
+        <v>407</v>
+      </c>
+      <c r="F10" t="s">
+        <v>406</v>
+      </c>
+      <c r="G10">
         <v>41</v>
       </c>
-      <c r="B10" t="s">
-        <v>325</v>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>343</v>
-      </c>
-      <c r="E10">
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>413</v>
+      </c>
+      <c r="N10">
         <v>86400</v>
       </c>
-      <c r="F10" t="s">
-        <v>355</v>
-      </c>
-      <c r="G10" t="s">
-        <v>377</v>
-      </c>
-      <c r="J10" t="s">
-        <v>385</v>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="O10" t="s">
-        <v>386</v>
-      </c>
-      <c r="P10" t="s">
-        <v>389</v>
+      <c r="O10">
+        <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>393</v>
+        <v>425</v>
       </c>
       <c r="R10" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="S10" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="T10" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="U10" t="s">
-        <v>325</v>
+        <v>448</v>
       </c>
       <c r="V10" t="s">
-        <v>405</v>
+        <v>368</v>
       </c>
       <c r="W10" t="s">
-        <v>414</v>
+        <v>457</v>
       </c>
       <c r="X10" t="s">
-        <v>436</v>
+        <v>479</v>
       </c>
       <c r="Y10" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="Z10" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AA10" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AB10" t="b">
         <v>0</v>
@@ -3823,16 +4206,16 @@
         <v>1</v>
       </c>
       <c r="AE10" t="s">
-        <v>355</v>
+        <v>425</v>
       </c>
       <c r="AF10" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="AG10" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="AI10" t="s">
-        <v>343</v>
+        <v>413</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -3841,31 +4224,31 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="AM10" t="s">
-        <v>459</v>
+        <v>502</v>
       </c>
       <c r="AN10" t="b">
         <v>1</v>
       </c>
       <c r="AO10" t="s">
-        <v>473</v>
+        <v>516</v>
       </c>
       <c r="AP10" t="s">
-        <v>479</v>
+        <v>522</v>
       </c>
       <c r="AQ10" t="s">
-        <v>498</v>
+        <v>541</v>
       </c>
       <c r="AR10" t="s">
-        <v>511</v>
+        <v>554</v>
       </c>
       <c r="AS10" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="AT10" t="s">
-        <v>514</v>
+        <v>557</v>
       </c>
       <c r="AU10">
         <v>1</v>
@@ -3880,78 +4263,78 @@
         <v>0</v>
       </c>
       <c r="BB10" t="s">
-        <v>529</v>
+        <v>572</v>
       </c>
       <c r="BG10" t="s">
-        <v>538</v>
+        <v>581</v>
       </c>
     </row>
     <row r="11" spans="1:59">
-      <c r="A11">
+      <c r="A11" t="s">
+        <v>369</v>
+      </c>
+      <c r="B11" t="s">
+        <v>391</v>
+      </c>
+      <c r="C11" t="s">
+        <v>400</v>
+      </c>
+      <c r="D11" t="s">
+        <v>404</v>
+      </c>
+      <c r="E11" t="s">
+        <v>407</v>
+      </c>
+      <c r="F11" t="s">
+        <v>406</v>
+      </c>
+      <c r="G11">
         <v>45</v>
       </c>
-      <c r="B11" t="s">
-        <v>326</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11">
         <v>3600</v>
       </c>
-      <c r="F11" t="s">
-        <v>356</v>
-      </c>
-      <c r="G11" t="s">
-        <v>378</v>
-      </c>
-      <c r="J11" t="s">
-        <v>385</v>
-      </c>
-      <c r="K11" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="O11" t="s">
-        <v>388</v>
-      </c>
-      <c r="P11" t="s">
-        <v>389</v>
+      <c r="O11">
+        <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>393</v>
+        <v>426</v>
       </c>
       <c r="R11" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="S11" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="T11" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="U11" t="s">
-        <v>326</v>
+        <v>448</v>
       </c>
       <c r="V11" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
       <c r="W11" t="s">
-        <v>415</v>
+        <v>458</v>
       </c>
       <c r="X11" t="s">
-        <v>437</v>
+        <v>480</v>
       </c>
       <c r="Y11" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="Z11" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AA11" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AB11" t="b">
         <v>0</v>
@@ -3960,13 +4343,13 @@
         <v>0</v>
       </c>
       <c r="AE11" t="s">
-        <v>356</v>
+        <v>426</v>
       </c>
       <c r="AF11" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="AG11" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="AJ11">
         <v>1</v>
@@ -3975,31 +4358,31 @@
         <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="AM11" t="s">
-        <v>460</v>
+        <v>503</v>
       </c>
       <c r="AN11" t="b">
         <v>1</v>
       </c>
       <c r="AO11" t="s">
-        <v>473</v>
+        <v>516</v>
       </c>
       <c r="AP11" t="s">
-        <v>480</v>
+        <v>523</v>
       </c>
       <c r="AQ11" t="s">
-        <v>499</v>
+        <v>542</v>
       </c>
       <c r="AR11" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="AS11" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="AT11" t="s">
-        <v>460</v>
+        <v>503</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -4014,78 +4397,78 @@
         <v>0</v>
       </c>
       <c r="BB11" t="s">
-        <v>529</v>
+        <v>572</v>
       </c>
       <c r="BG11" t="s">
-        <v>538</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="1:59">
-      <c r="A12">
+      <c r="A12" t="s">
+        <v>370</v>
+      </c>
+      <c r="B12" t="s">
+        <v>389</v>
+      </c>
+      <c r="C12" t="s">
+        <v>400</v>
+      </c>
+      <c r="D12" t="s">
+        <v>404</v>
+      </c>
+      <c r="E12" t="s">
+        <v>407</v>
+      </c>
+      <c r="F12" t="s">
+        <v>406</v>
+      </c>
+      <c r="G12">
         <v>48</v>
       </c>
-      <c r="B12" t="s">
-        <v>327</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12">
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12">
         <v>3600</v>
       </c>
-      <c r="F12" t="s">
-        <v>357</v>
-      </c>
-      <c r="G12" t="s">
-        <v>376</v>
-      </c>
-      <c r="J12" t="s">
-        <v>385</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
-        <v>386</v>
-      </c>
-      <c r="P12" t="s">
-        <v>389</v>
+      <c r="O12">
+        <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>393</v>
+        <v>427</v>
       </c>
       <c r="R12" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="S12" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="T12" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="U12" t="s">
-        <v>327</v>
+        <v>448</v>
       </c>
       <c r="V12" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="W12" t="s">
-        <v>416</v>
+        <v>459</v>
       </c>
       <c r="X12" t="s">
-        <v>438</v>
+        <v>481</v>
       </c>
       <c r="Y12" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="Z12" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AA12" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AB12" t="b">
         <v>0</v>
@@ -4094,13 +4477,13 @@
         <v>0</v>
       </c>
       <c r="AE12" t="s">
-        <v>357</v>
+        <v>427</v>
       </c>
       <c r="AF12" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="AG12" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="AJ12">
         <v>1</v>
@@ -4109,31 +4492,31 @@
         <v>0</v>
       </c>
       <c r="AL12" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="AM12" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="AN12" t="b">
         <v>1</v>
       </c>
       <c r="AO12" t="s">
-        <v>473</v>
+        <v>516</v>
       </c>
       <c r="AP12" t="s">
-        <v>481</v>
+        <v>524</v>
       </c>
       <c r="AQ12" t="s">
-        <v>500</v>
+        <v>543</v>
       </c>
       <c r="AR12" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="AS12" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="AT12" t="s">
-        <v>516</v>
+        <v>559</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -4148,78 +4531,78 @@
         <v>0</v>
       </c>
       <c r="BB12" t="s">
-        <v>529</v>
+        <v>572</v>
       </c>
       <c r="BG12" t="s">
-        <v>538</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="1:59">
-      <c r="A13">
+      <c r="A13" t="s">
+        <v>371</v>
+      </c>
+      <c r="B13" t="s">
+        <v>392</v>
+      </c>
+      <c r="C13" t="s">
+        <v>400</v>
+      </c>
+      <c r="D13" t="s">
+        <v>404</v>
+      </c>
+      <c r="E13" t="s">
+        <v>407</v>
+      </c>
+      <c r="F13" t="s">
+        <v>406</v>
+      </c>
+      <c r="G13">
         <v>49</v>
       </c>
-      <c r="B13" t="s">
-        <v>328</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13">
         <v>3600</v>
       </c>
-      <c r="F13" t="s">
-        <v>358</v>
-      </c>
-      <c r="G13" t="s">
-        <v>379</v>
-      </c>
-      <c r="J13" t="s">
-        <v>385</v>
-      </c>
-      <c r="K13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="O13" t="s">
-        <v>386</v>
-      </c>
-      <c r="P13" t="s">
-        <v>389</v>
+      <c r="O13">
+        <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="R13" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="S13" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="T13" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="U13" t="s">
-        <v>328</v>
+        <v>448</v>
       </c>
       <c r="V13" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="W13" t="s">
-        <v>417</v>
+        <v>460</v>
       </c>
       <c r="X13" t="s">
-        <v>439</v>
+        <v>482</v>
       </c>
       <c r="Y13" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="Z13" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AA13" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AB13" t="b">
         <v>0</v>
@@ -4228,13 +4611,13 @@
         <v>0</v>
       </c>
       <c r="AE13" t="s">
-        <v>358</v>
+        <v>428</v>
       </c>
       <c r="AF13" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="AG13" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="AJ13">
         <v>1</v>
@@ -4243,10 +4626,10 @@
         <v>0</v>
       </c>
       <c r="AL13" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="AM13" t="s">
-        <v>465</v>
+        <v>508</v>
       </c>
       <c r="AN13" t="b">
         <v>1</v>
@@ -4255,19 +4638,19 @@
         <v>120</v>
       </c>
       <c r="AP13" t="s">
-        <v>358</v>
+        <v>428</v>
       </c>
       <c r="AQ13" t="s">
-        <v>501</v>
+        <v>544</v>
       </c>
       <c r="AR13" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AS13" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AT13" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4282,81 +4665,81 @@
         <v>0</v>
       </c>
       <c r="BB13" t="s">
-        <v>529</v>
+        <v>572</v>
       </c>
       <c r="BG13" t="s">
-        <v>538</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" spans="1:59">
-      <c r="A14">
+      <c r="A14" t="s">
+        <v>372</v>
+      </c>
+      <c r="B14" t="s">
+        <v>382</v>
+      </c>
+      <c r="C14" t="s">
+        <v>400</v>
+      </c>
+      <c r="D14" t="s">
+        <v>405</v>
+      </c>
+      <c r="E14" t="s">
+        <v>406</v>
+      </c>
+      <c r="F14" t="s">
+        <v>406</v>
+      </c>
+      <c r="G14">
         <v>58</v>
       </c>
-      <c r="B14" t="s">
-        <v>329</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>344</v>
-      </c>
-      <c r="E14">
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>414</v>
+      </c>
+      <c r="N14">
         <v>300</v>
       </c>
-      <c r="F14" t="s">
-        <v>359</v>
-      </c>
-      <c r="G14" t="s">
-        <v>369</v>
-      </c>
-      <c r="J14" t="s">
-        <v>385</v>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="O14" t="s">
-        <v>387</v>
-      </c>
-      <c r="P14" t="s">
-        <v>385</v>
+      <c r="O14">
+        <v>0</v>
       </c>
       <c r="Q14" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="R14" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="S14" t="s">
-        <v>397</v>
+        <v>444</v>
       </c>
       <c r="T14" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="U14" t="s">
-        <v>329</v>
+        <v>448</v>
       </c>
       <c r="V14" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="W14" t="s">
-        <v>418</v>
+        <v>461</v>
       </c>
       <c r="X14" t="s">
-        <v>440</v>
+        <v>483</v>
       </c>
       <c r="Y14" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="Z14" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AA14" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AB14" t="b">
         <v>0</v>
@@ -4365,16 +4748,16 @@
         <v>1</v>
       </c>
       <c r="AE14" t="s">
-        <v>359</v>
+        <v>429</v>
       </c>
       <c r="AF14" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="AG14" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="AI14" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="AJ14">
         <v>0</v>
@@ -4383,31 +4766,31 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="AM14" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="AN14" t="b">
         <v>1</v>
       </c>
       <c r="AO14" t="s">
-        <v>473</v>
+        <v>516</v>
       </c>
       <c r="AP14" t="s">
-        <v>482</v>
+        <v>525</v>
       </c>
       <c r="AQ14" t="s">
-        <v>502</v>
+        <v>545</v>
       </c>
       <c r="AR14" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="AS14" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="AT14" t="s">
-        <v>517</v>
+        <v>560</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4422,78 +4805,78 @@
         <v>0</v>
       </c>
       <c r="BB14" t="s">
-        <v>529</v>
+        <v>572</v>
       </c>
       <c r="BD14">
         <v>1</v>
       </c>
       <c r="BG14" t="s">
-        <v>538</v>
+        <v>581</v>
       </c>
     </row>
     <row r="15" spans="1:59">
-      <c r="A15">
+      <c r="A15" t="s">
+        <v>373</v>
+      </c>
+      <c r="B15" t="s">
+        <v>383</v>
+      </c>
+      <c r="C15" t="s">
+        <v>398</v>
+      </c>
+      <c r="D15" t="s">
+        <v>402</v>
+      </c>
+      <c r="E15" t="s">
+        <v>406</v>
+      </c>
+      <c r="F15" t="s">
+        <v>406</v>
+      </c>
+      <c r="G15">
         <v>68</v>
       </c>
-      <c r="B15" t="s">
-        <v>330</v>
-      </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15">
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15">
         <v>3600</v>
       </c>
-      <c r="F15" t="s">
-        <v>360</v>
-      </c>
-      <c r="G15" t="s">
-        <v>370</v>
-      </c>
-      <c r="J15" t="s">
-        <v>385</v>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="O15" t="s">
-        <v>388</v>
-      </c>
-      <c r="P15" t="s">
-        <v>385</v>
-      </c>
       <c r="Q15" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="R15" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="S15" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="T15" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="U15" t="s">
-        <v>330</v>
+        <v>448</v>
       </c>
       <c r="V15" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="W15" t="s">
-        <v>419</v>
+        <v>462</v>
       </c>
       <c r="X15" t="s">
-        <v>441</v>
+        <v>484</v>
       </c>
       <c r="Y15" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="Z15" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AA15" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AB15" t="b">
         <v>0</v>
@@ -4502,13 +4885,13 @@
         <v>1</v>
       </c>
       <c r="AE15" t="s">
-        <v>360</v>
+        <v>430</v>
       </c>
       <c r="AF15" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="AG15" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="AJ15">
         <v>1</v>
@@ -4517,31 +4900,31 @@
         <v>0</v>
       </c>
       <c r="AL15" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="AM15" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="AN15" t="b">
         <v>1</v>
       </c>
       <c r="AO15" t="s">
-        <v>473</v>
+        <v>516</v>
       </c>
       <c r="AP15" t="s">
-        <v>483</v>
+        <v>526</v>
       </c>
       <c r="AQ15" t="s">
-        <v>503</v>
+        <v>546</v>
       </c>
       <c r="AR15" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="AS15" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="AT15" t="s">
-        <v>518</v>
+        <v>561</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4556,78 +4939,78 @@
         <v>0</v>
       </c>
       <c r="BB15" t="s">
-        <v>529</v>
+        <v>572</v>
       </c>
       <c r="BC15" t="s">
-        <v>534</v>
+        <v>577</v>
       </c>
       <c r="BG15" t="s">
-        <v>538</v>
+        <v>581</v>
       </c>
     </row>
     <row r="16" spans="1:59">
-      <c r="A16">
+      <c r="A16" t="s">
+        <v>374</v>
+      </c>
+      <c r="B16" t="s">
+        <v>393</v>
+      </c>
+      <c r="C16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D16" t="s">
+        <v>404</v>
+      </c>
+      <c r="E16" t="s">
+        <v>406</v>
+      </c>
+      <c r="F16" t="s">
+        <v>406</v>
+      </c>
+      <c r="G16">
         <v>73</v>
       </c>
-      <c r="B16" t="s">
-        <v>331</v>
-      </c>
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16">
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16">
         <v>300</v>
       </c>
-      <c r="F16" t="s">
-        <v>361</v>
-      </c>
-      <c r="G16" t="s">
-        <v>380</v>
-      </c>
-      <c r="J16" t="s">
-        <v>385</v>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="O16" t="s">
-        <v>388</v>
-      </c>
-      <c r="P16" t="s">
-        <v>385</v>
-      </c>
       <c r="Q16" t="s">
-        <v>393</v>
+        <v>431</v>
       </c>
       <c r="R16" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="S16" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="T16" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="U16" t="s">
-        <v>331</v>
+        <v>448</v>
       </c>
       <c r="V16" t="s">
-        <v>405</v>
+        <v>374</v>
       </c>
       <c r="W16" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="X16" t="s">
-        <v>442</v>
+        <v>485</v>
       </c>
       <c r="Y16" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="Z16" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AA16" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AB16" t="b">
         <v>0</v>
@@ -4636,13 +5019,13 @@
         <v>1</v>
       </c>
       <c r="AE16" t="s">
-        <v>361</v>
+        <v>431</v>
       </c>
       <c r="AF16" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="AG16" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="AJ16">
         <v>0</v>
@@ -4651,31 +5034,31 @@
         <v>0</v>
       </c>
       <c r="AL16" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="AM16" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="AN16" t="b">
         <v>1</v>
       </c>
       <c r="AO16" t="s">
-        <v>473</v>
+        <v>516</v>
       </c>
       <c r="AP16" t="s">
-        <v>484</v>
+        <v>527</v>
       </c>
       <c r="AQ16" t="s">
-        <v>504</v>
+        <v>547</v>
       </c>
       <c r="AR16" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="AS16" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="AT16" t="s">
-        <v>519</v>
+        <v>562</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4690,84 +5073,84 @@
         <v>0</v>
       </c>
       <c r="BB16" t="s">
-        <v>529</v>
+        <v>572</v>
       </c>
       <c r="BC16" t="s">
-        <v>533</v>
+        <v>576</v>
       </c>
       <c r="BD16">
         <v>1</v>
       </c>
       <c r="BG16" t="s">
-        <v>538</v>
+        <v>581</v>
       </c>
     </row>
     <row r="17" spans="1:59">
-      <c r="A17">
+      <c r="A17" t="s">
+        <v>375</v>
+      </c>
+      <c r="B17" t="s">
+        <v>383</v>
+      </c>
+      <c r="C17" t="s">
+        <v>398</v>
+      </c>
+      <c r="D17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E17" t="s">
+        <v>406</v>
+      </c>
+      <c r="F17" t="s">
+        <v>406</v>
+      </c>
+      <c r="G17">
         <v>75</v>
       </c>
-      <c r="B17" t="s">
-        <v>332</v>
-      </c>
-      <c r="C17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17">
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17">
         <v>900</v>
       </c>
-      <c r="F17" t="s">
-        <v>362</v>
-      </c>
-      <c r="G17" t="s">
-        <v>370</v>
-      </c>
-      <c r="J17" t="s">
-        <v>385</v>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="O17" t="s">
-        <v>386</v>
-      </c>
-      <c r="P17" t="s">
-        <v>385</v>
+      <c r="O17">
+        <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="R17" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="S17" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="T17" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="U17" t="s">
-        <v>332</v>
+        <v>448</v>
       </c>
       <c r="V17" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="W17" t="s">
-        <v>421</v>
+        <v>464</v>
       </c>
       <c r="X17" t="s">
-        <v>443</v>
+        <v>486</v>
       </c>
       <c r="Y17" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="Z17" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AA17" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AB17" t="b">
         <v>0</v>
@@ -4776,13 +5159,13 @@
         <v>1</v>
       </c>
       <c r="AE17" t="s">
-        <v>362</v>
+        <v>432</v>
       </c>
       <c r="AF17" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="AG17" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="AJ17">
         <v>0</v>
@@ -4791,25 +5174,25 @@
         <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="AN17" t="b">
         <v>1</v>
       </c>
       <c r="AO17" t="s">
-        <v>473</v>
+        <v>516</v>
       </c>
       <c r="AP17" t="s">
-        <v>485</v>
+        <v>528</v>
       </c>
       <c r="AR17" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="AS17" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="AT17" t="s">
-        <v>520</v>
+        <v>563</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4824,126 +5207,126 @@
         <v>0</v>
       </c>
       <c r="BB17" t="s">
+        <v>572</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>578</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="18" spans="1:59">
+      <c r="A18" t="s">
+        <v>376</v>
+      </c>
+      <c r="B18" t="s">
+        <v>394</v>
+      </c>
+      <c r="C18" t="s">
+        <v>398</v>
+      </c>
+      <c r="D18" t="s">
+        <v>402</v>
+      </c>
+      <c r="E18" t="s">
+        <v>406</v>
+      </c>
+      <c r="F18" t="s">
+        <v>406</v>
+      </c>
+      <c r="G18">
+        <v>77</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1800</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>433</v>
+      </c>
+      <c r="R18" t="s">
+        <v>440</v>
+      </c>
+      <c r="S18" t="s">
+        <v>443</v>
+      </c>
+      <c r="T18" t="s">
+        <v>445</v>
+      </c>
+      <c r="U18" t="s">
+        <v>448</v>
+      </c>
+      <c r="V18" t="s">
+        <v>376</v>
+      </c>
+      <c r="W18" t="s">
+        <v>465</v>
+      </c>
+      <c r="X18" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>406</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>494</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>406</v>
+      </c>
+      <c r="AB18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>433</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>498</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>500</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>376</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>511</v>
+      </c>
+      <c r="AN18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>516</v>
+      </c>
+      <c r="AP18" t="s">
         <v>529</v>
       </c>
-      <c r="BC17" t="s">
-        <v>535</v>
-      </c>
-      <c r="BG17" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="18" spans="1:59">
-      <c r="A18">
-        <v>77</v>
-      </c>
-      <c r="B18" t="s">
-        <v>333</v>
-      </c>
-      <c r="C18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1800</v>
-      </c>
-      <c r="F18" t="s">
-        <v>363</v>
-      </c>
-      <c r="G18" t="s">
-        <v>381</v>
-      </c>
-      <c r="J18" t="s">
-        <v>385</v>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="O18" t="s">
-        <v>387</v>
-      </c>
-      <c r="P18" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>391</v>
-      </c>
-      <c r="R18" t="s">
-        <v>395</v>
-      </c>
-      <c r="S18" t="s">
-        <v>397</v>
-      </c>
-      <c r="T18" t="s">
-        <v>400</v>
-      </c>
-      <c r="U18" t="s">
-        <v>333</v>
-      </c>
-      <c r="V18" t="s">
-        <v>403</v>
-      </c>
-      <c r="W18" t="s">
-        <v>422</v>
-      </c>
-      <c r="X18" t="s">
-        <v>444</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>385</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>385</v>
-      </c>
-      <c r="AB18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>363</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>455</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>457</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>333</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>468</v>
-      </c>
-      <c r="AN18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>473</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>486</v>
-      </c>
       <c r="AQ18" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="AR18" t="s">
-        <v>513</v>
+        <v>556</v>
       </c>
       <c r="AS18" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="AT18" t="s">
-        <v>521</v>
+        <v>564</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4961,87 +5344,87 @@
         <v>17</v>
       </c>
       <c r="BA18" t="s">
-        <v>528</v>
+        <v>571</v>
       </c>
       <c r="BB18" t="s">
-        <v>529</v>
+        <v>572</v>
       </c>
       <c r="BC18" t="s">
-        <v>536</v>
+        <v>579</v>
       </c>
       <c r="BG18" t="s">
-        <v>538</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:59">
-      <c r="A19">
+      <c r="A19" t="s">
+        <v>377</v>
+      </c>
+      <c r="B19" t="s">
+        <v>394</v>
+      </c>
+      <c r="C19" t="s">
+        <v>398</v>
+      </c>
+      <c r="D19" t="s">
+        <v>402</v>
+      </c>
+      <c r="E19" t="s">
+        <v>406</v>
+      </c>
+      <c r="F19" t="s">
+        <v>406</v>
+      </c>
+      <c r="G19">
         <v>78</v>
       </c>
-      <c r="B19" t="s">
-        <v>334</v>
-      </c>
-      <c r="C19" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>344</v>
-      </c>
-      <c r="E19">
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>414</v>
+      </c>
+      <c r="N19">
         <v>900</v>
       </c>
-      <c r="F19" t="s">
-        <v>364</v>
-      </c>
-      <c r="G19" t="s">
-        <v>381</v>
-      </c>
-      <c r="J19" t="s">
-        <v>385</v>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="O19" t="s">
-        <v>387</v>
-      </c>
-      <c r="P19" t="s">
-        <v>385</v>
+      <c r="O19">
+        <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="R19" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="S19" t="s">
-        <v>397</v>
+        <v>444</v>
       </c>
       <c r="T19" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="U19" t="s">
-        <v>334</v>
+        <v>448</v>
       </c>
       <c r="V19" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="W19" t="s">
-        <v>423</v>
+        <v>466</v>
       </c>
       <c r="X19" t="s">
-        <v>445</v>
+        <v>488</v>
       </c>
       <c r="Y19" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="Z19" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AA19" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AB19" t="b">
         <v>0</v>
@@ -5050,16 +5433,16 @@
         <v>1</v>
       </c>
       <c r="AE19" t="s">
-        <v>364</v>
+        <v>434</v>
       </c>
       <c r="AF19" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="AG19" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="AI19" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="AJ19">
         <v>0</v>
@@ -5068,31 +5451,31 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="AM19" t="s">
-        <v>469</v>
+        <v>512</v>
       </c>
       <c r="AN19" t="b">
         <v>1</v>
       </c>
       <c r="AO19" t="s">
-        <v>473</v>
+        <v>516</v>
       </c>
       <c r="AP19" t="s">
-        <v>487</v>
+        <v>530</v>
       </c>
       <c r="AQ19" t="s">
-        <v>506</v>
+        <v>549</v>
       </c>
       <c r="AR19" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="AS19" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="AT19" t="s">
-        <v>522</v>
+        <v>565</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5107,78 +5490,78 @@
         <v>0</v>
       </c>
       <c r="BB19" t="s">
-        <v>529</v>
+        <v>572</v>
       </c>
       <c r="BG19" t="s">
-        <v>538</v>
+        <v>581</v>
       </c>
     </row>
     <row r="20" spans="1:59">
-      <c r="A20">
+      <c r="A20" t="s">
+        <v>378</v>
+      </c>
+      <c r="B20" t="s">
+        <v>395</v>
+      </c>
+      <c r="C20" t="s">
+        <v>398</v>
+      </c>
+      <c r="D20" t="s">
+        <v>402</v>
+      </c>
+      <c r="E20" t="s">
+        <v>406</v>
+      </c>
+      <c r="F20" t="s">
+        <v>406</v>
+      </c>
+      <c r="G20">
         <v>79</v>
       </c>
-      <c r="B20" t="s">
-        <v>335</v>
-      </c>
-      <c r="C20" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>345</v>
-      </c>
-      <c r="E20">
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>415</v>
+      </c>
+      <c r="N20">
         <v>1800</v>
       </c>
-      <c r="F20" t="s">
-        <v>365</v>
-      </c>
-      <c r="G20" t="s">
-        <v>382</v>
-      </c>
-      <c r="J20" t="s">
-        <v>385</v>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="O20" t="s">
-        <v>387</v>
-      </c>
-      <c r="P20" t="s">
-        <v>385</v>
-      </c>
       <c r="Q20" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="R20" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="S20" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="T20" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="U20" t="s">
-        <v>335</v>
+        <v>448</v>
       </c>
       <c r="V20" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="W20" t="s">
-        <v>424</v>
+        <v>467</v>
       </c>
       <c r="X20" t="s">
-        <v>446</v>
+        <v>489</v>
       </c>
       <c r="Y20" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="Z20" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="AA20" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AB20" t="b">
         <v>0</v>
@@ -5187,16 +5570,16 @@
         <v>1</v>
       </c>
       <c r="AE20" t="s">
-        <v>365</v>
+        <v>435</v>
       </c>
       <c r="AF20" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="AG20" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="AI20" t="s">
-        <v>345</v>
+        <v>415</v>
       </c>
       <c r="AJ20">
         <v>0</v>
@@ -5205,31 +5588,31 @@
         <v>0</v>
       </c>
       <c r="AL20" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="AM20" t="s">
-        <v>468</v>
+        <v>511</v>
       </c>
       <c r="AN20" t="b">
         <v>1</v>
       </c>
       <c r="AO20" t="s">
-        <v>473</v>
+        <v>516</v>
       </c>
       <c r="AP20" t="s">
-        <v>488</v>
+        <v>531</v>
       </c>
       <c r="AQ20" t="s">
-        <v>507</v>
+        <v>550</v>
       </c>
       <c r="AR20" t="s">
-        <v>513</v>
+        <v>556</v>
       </c>
       <c r="AS20" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="AT20" t="s">
-        <v>521</v>
+        <v>564</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5247,81 +5630,81 @@
         <v>17</v>
       </c>
       <c r="BA20" t="s">
-        <v>528</v>
+        <v>571</v>
       </c>
       <c r="BB20" t="s">
-        <v>529</v>
+        <v>572</v>
       </c>
       <c r="BG20" t="s">
-        <v>538</v>
+        <v>581</v>
       </c>
     </row>
     <row r="21" spans="1:59">
-      <c r="A21">
+      <c r="A21" t="s">
+        <v>379</v>
+      </c>
+      <c r="B21" t="s">
+        <v>395</v>
+      </c>
+      <c r="C21" t="s">
+        <v>398</v>
+      </c>
+      <c r="D21" t="s">
+        <v>402</v>
+      </c>
+      <c r="E21" t="s">
+        <v>406</v>
+      </c>
+      <c r="F21" t="s">
+        <v>406</v>
+      </c>
+      <c r="G21">
         <v>88</v>
       </c>
-      <c r="B21" t="s">
-        <v>336</v>
-      </c>
-      <c r="C21" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>346</v>
-      </c>
-      <c r="E21">
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>416</v>
+      </c>
+      <c r="N21">
         <v>300</v>
       </c>
-      <c r="F21" t="s">
-        <v>366</v>
-      </c>
-      <c r="G21" t="s">
-        <v>382</v>
-      </c>
-      <c r="J21" t="s">
-        <v>385</v>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="O21" t="s">
-        <v>386</v>
-      </c>
-      <c r="P21" t="s">
-        <v>385</v>
-      </c>
       <c r="Q21" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="R21" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="S21" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="T21" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="U21" t="s">
-        <v>336</v>
+        <v>448</v>
       </c>
       <c r="V21" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="W21" t="s">
-        <v>425</v>
+        <v>468</v>
       </c>
       <c r="X21" t="s">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="Y21" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="Z21" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AA21" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AB21" t="b">
         <v>0</v>
@@ -5330,16 +5713,16 @@
         <v>1</v>
       </c>
       <c r="AE21" t="s">
-        <v>366</v>
+        <v>436</v>
       </c>
       <c r="AF21" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="AG21" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="AI21" t="s">
-        <v>346</v>
+        <v>416</v>
       </c>
       <c r="AJ21">
         <v>0</v>
@@ -5348,31 +5731,31 @@
         <v>0</v>
       </c>
       <c r="AL21" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="AM21" t="s">
-        <v>470</v>
+        <v>513</v>
       </c>
       <c r="AN21" t="b">
         <v>1</v>
       </c>
       <c r="AO21" t="s">
-        <v>473</v>
+        <v>516</v>
       </c>
       <c r="AP21" t="s">
-        <v>489</v>
+        <v>532</v>
       </c>
       <c r="AQ21" t="s">
-        <v>508</v>
+        <v>551</v>
       </c>
       <c r="AR21" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AS21" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AT21" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5387,84 +5770,84 @@
         <v>1</v>
       </c>
       <c r="AZ21" t="s">
-        <v>526</v>
+        <v>569</v>
       </c>
       <c r="BA21" t="s">
         <v>126</v>
       </c>
       <c r="BB21" t="s">
-        <v>529</v>
+        <v>572</v>
       </c>
       <c r="BG21" t="s">
-        <v>538</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" spans="1:59">
-      <c r="A22">
+      <c r="A22" t="s">
+        <v>380</v>
+      </c>
+      <c r="B22" t="s">
+        <v>396</v>
+      </c>
+      <c r="C22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D22" t="s">
+        <v>402</v>
+      </c>
+      <c r="E22" t="s">
+        <v>406</v>
+      </c>
+      <c r="F22" t="s">
+        <v>406</v>
+      </c>
+      <c r="G22">
         <v>98</v>
       </c>
-      <c r="B22" t="s">
-        <v>337</v>
-      </c>
-      <c r="C22" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>347</v>
-      </c>
-      <c r="E22">
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>417</v>
+      </c>
+      <c r="N22">
         <v>300</v>
       </c>
-      <c r="F22" t="s">
-        <v>367</v>
-      </c>
-      <c r="G22" t="s">
-        <v>383</v>
-      </c>
-      <c r="J22" t="s">
-        <v>385</v>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-      <c r="O22" t="s">
-        <v>387</v>
-      </c>
-      <c r="P22" t="s">
-        <v>385</v>
-      </c>
       <c r="Q22" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="R22" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="S22" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="T22" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="U22" t="s">
-        <v>337</v>
+        <v>448</v>
       </c>
       <c r="V22" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="W22" t="s">
-        <v>426</v>
+        <v>469</v>
       </c>
       <c r="X22" t="s">
-        <v>448</v>
+        <v>491</v>
       </c>
       <c r="Y22" t="s">
-        <v>450</v>
+        <v>493</v>
       </c>
       <c r="Z22" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="AA22" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AB22" t="b">
         <v>1</v>
@@ -5473,16 +5856,16 @@
         <v>1</v>
       </c>
       <c r="AE22" t="s">
-        <v>367</v>
+        <v>437</v>
       </c>
       <c r="AF22" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="AG22" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="AI22" t="s">
-        <v>347</v>
+        <v>417</v>
       </c>
       <c r="AJ22">
         <v>0</v>
@@ -5491,10 +5874,10 @@
         <v>0</v>
       </c>
       <c r="AL22" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="AM22" t="s">
-        <v>471</v>
+        <v>514</v>
       </c>
       <c r="AN22" t="b">
         <v>1</v>
@@ -5503,19 +5886,19 @@
         <v>120</v>
       </c>
       <c r="AP22" t="s">
-        <v>490</v>
+        <v>533</v>
       </c>
       <c r="AQ22" t="s">
-        <v>509</v>
+        <v>552</v>
       </c>
       <c r="AR22" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AS22" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AT22" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5530,81 +5913,81 @@
         <v>0</v>
       </c>
       <c r="AY22" t="s">
-        <v>525</v>
+        <v>568</v>
       </c>
       <c r="BB22" t="s">
-        <v>530</v>
+        <v>573</v>
       </c>
       <c r="BC22" t="s">
-        <v>537</v>
+        <v>580</v>
       </c>
       <c r="BG22" t="s">
-        <v>538</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:59">
-      <c r="A23">
+      <c r="A23" t="s">
+        <v>381</v>
+      </c>
+      <c r="B23" t="s">
+        <v>382</v>
+      </c>
+      <c r="C23" t="s">
+        <v>398</v>
+      </c>
+      <c r="D23" t="s">
+        <v>402</v>
+      </c>
+      <c r="E23" t="s">
+        <v>406</v>
+      </c>
+      <c r="F23" t="s">
+        <v>406</v>
+      </c>
+      <c r="G23">
         <v>107</v>
       </c>
-      <c r="B23" t="s">
-        <v>338</v>
-      </c>
-      <c r="C23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23">
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23">
         <v>1800</v>
       </c>
-      <c r="F23" t="s">
-        <v>368</v>
-      </c>
-      <c r="G23" t="s">
-        <v>369</v>
-      </c>
-      <c r="J23" t="s">
-        <v>385</v>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="O23" t="s">
-        <v>387</v>
-      </c>
-      <c r="P23" t="s">
-        <v>385</v>
-      </c>
       <c r="Q23" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="R23" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="S23" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="T23" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="U23" t="s">
-        <v>338</v>
+        <v>448</v>
       </c>
       <c r="V23" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="W23" t="s">
-        <v>427</v>
+        <v>470</v>
       </c>
       <c r="X23" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="Y23" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="Z23" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="AA23" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AB23" t="b">
         <v>0</v>
@@ -5613,13 +5996,13 @@
         <v>1</v>
       </c>
       <c r="AE23" t="s">
-        <v>368</v>
+        <v>438</v>
       </c>
       <c r="AF23" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="AG23" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="AJ23">
         <v>0</v>
@@ -5628,31 +6011,31 @@
         <v>0</v>
       </c>
       <c r="AL23" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="AM23" t="s">
-        <v>472</v>
+        <v>515</v>
       </c>
       <c r="AN23" t="b">
         <v>1</v>
       </c>
       <c r="AO23" t="s">
-        <v>473</v>
+        <v>516</v>
       </c>
       <c r="AP23" t="s">
-        <v>491</v>
+        <v>534</v>
       </c>
       <c r="AQ23" t="s">
-        <v>510</v>
+        <v>553</v>
       </c>
       <c r="AR23" t="s">
-        <v>513</v>
+        <v>556</v>
       </c>
       <c r="AS23" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="AT23" t="s">
-        <v>523</v>
+        <v>566</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5667,19 +6050,19 @@
         <v>1</v>
       </c>
       <c r="AZ23" t="s">
-        <v>527</v>
+        <v>570</v>
       </c>
       <c r="BA23" t="s">
-        <v>528</v>
+        <v>571</v>
       </c>
       <c r="BB23" t="s">
-        <v>529</v>
+        <v>572</v>
       </c>
       <c r="BD23">
         <v>5</v>
       </c>
       <c r="BG23" t="s">
-        <v>538</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
